--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_en.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>EAN</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>If further backtracing information is available - maybe up to the producer of the product - please put this information into an additional line of this sheet and make a meaningful note in the comments field.</t>
+  </si>
+  <si>
+    <t>[Company name]</t>
+  </si>
+  <si>
+    <t>[Street]</t>
+  </si>
+  <si>
+    <t>[Country]</t>
+  </si>
+  <si>
+    <t>Information to complete the sheet:</t>
   </si>
 </sst>
 </file>
@@ -523,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -724,19 +736,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -909,19 +908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0"/>
@@ -990,17 +976,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1122,13 +1097,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1251,7 +1243,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -1268,195 +1260,183 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="31" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="31" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1872,12 +1852,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1893,1834 +1870,1377 @@
     <col min="10" max="10" width="11.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="21" style="3" customWidth="1"/>
     <col min="12" max="12" width="34.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="13" max="19" width="11.42578125" style="7"/>
+    <col min="20" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="12" t="s">
-        <v>20</v>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>26</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-    </row>
-    <row r="4" spans="1:19" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+    </row>
+    <row r="6" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+    </row>
+    <row r="7" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-    </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="40" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="45" t="s">
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10" t="s">
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61" t="s">
+      <c r="L9" s="47"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="61" t="s">
+      <c r="I10" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="60"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="8"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="8"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
-    </row>
-    <row r="18" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="8"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-    </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="8"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="S19" s="16"/>
-    </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="8"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-    </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="8"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-    </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-    </row>
-    <row r="24" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-    </row>
-    <row r="25" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-    </row>
-    <row r="26" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-    </row>
-    <row r="27" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="8"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-    </row>
-    <row r="28" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-    </row>
-    <row r="29" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-    </row>
-    <row r="30" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-    </row>
-    <row r="31" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="48"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-    </row>
-    <row r="32" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="25"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-    </row>
-    <row r="34" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="25"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-    </row>
-    <row r="35" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="48"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-    </row>
-    <row r="36" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-    </row>
-    <row r="37" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="48"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="25"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-    </row>
-    <row r="38" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="48"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="50"/>
-      <c r="M38" s="25"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-    </row>
-    <row r="39" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="48"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-    </row>
-    <row r="40" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="50"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-    </row>
-    <row r="41" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="48"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-    </row>
-    <row r="42" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-    </row>
-    <row r="43" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-    </row>
-    <row r="44" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="48"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-    </row>
-    <row r="45" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-    </row>
-    <row r="46" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-    </row>
-    <row r="47" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="48"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-    </row>
-    <row r="48" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="50"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-    </row>
-    <row r="49" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="50"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-    </row>
-    <row r="50" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="48"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-    </row>
-    <row r="51" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-    </row>
-    <row r="52" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="48"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="50"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-    </row>
-    <row r="53" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="48"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-    </row>
-    <row r="54" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="48"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-    </row>
-    <row r="55" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="48"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-    </row>
-    <row r="56" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="48"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="8"/>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-    </row>
-    <row r="57" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="8"/>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-    </row>
-    <row r="58" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="8"/>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-    </row>
-    <row r="59" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="48"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="8"/>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-    </row>
-    <row r="60" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="48"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="8"/>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-    </row>
-    <row r="61" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="48"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-    </row>
-    <row r="62" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="48"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="49"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-    </row>
-    <row r="63" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="48"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="8"/>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-    </row>
-    <row r="64" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="48"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="8"/>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-    </row>
-    <row r="65" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="8"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-    </row>
-    <row r="66" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="48"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="8"/>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="49"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-    </row>
-    <row r="67" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="48"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="8"/>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="49"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="49"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-    </row>
-    <row r="68" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="48"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="8"/>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-    </row>
-    <row r="69" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="48"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="8"/>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="25"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-    </row>
-    <row r="70" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="48"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="8"/>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="49"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="49"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-    </row>
-    <row r="71" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="48"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="8"/>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-    </row>
-    <row r="72" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-    </row>
-    <row r="73" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="48"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="8"/>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="25"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-    </row>
-    <row r="74" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="48"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="8"/>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-    </row>
-    <row r="75" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="48"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="8"/>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="25"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-    </row>
-    <row r="76" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="48"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="8"/>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="49"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="49"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="50"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-    </row>
-    <row r="77" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="48"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="49"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="49"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-    </row>
-    <row r="78" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="48"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-    </row>
-    <row r="79" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="8"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="49"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="49"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="50"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-    </row>
-    <row r="80" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="48"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="8"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="12"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="49"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="49"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="50"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-    </row>
-    <row r="81" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="48"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="8"/>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="49"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="49"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="50"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-    </row>
-    <row r="82" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="48"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="8"/>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="12"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-    </row>
-    <row r="83" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="53"/>
-      <c r="M83" s="25"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-    </row>
-    <row r="84" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K84" s="4"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="8"/>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="12"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="8"/>
+    </row>
+    <row r="84" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="8"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K85" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="F3:L3"/>
+  <mergeCells count="21">
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:H1048576 H1:H2 H4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576 I1:I2 I4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1048576 J1:J2 J4">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J1048576">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Backtrace_Start_simple_en.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Backtracing" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Backtracing!$A$1:$L$46</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -20,9 +23,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Company:</t>
   </si>
   <si>
     <t>Products in Focus:</t>
@@ -112,20 +112,23 @@
     <t>[Company name]</t>
   </si>
   <si>
-    <t>[Street]</t>
-  </si>
-  <si>
     <t>[Country]</t>
   </si>
   <si>
     <t>Information to complete the sheet:</t>
+  </si>
+  <si>
+    <t>Inquired Company:</t>
+  </si>
+  <si>
+    <t>[Address]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,6 +368,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="29">
     <fill>
@@ -535,7 +549,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1097,9 +1111,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1112,11 +1124,24 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
@@ -1243,32 +1268,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1277,61 +1278,145 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1342,77 +1427,70 @@
     <xf numFmtId="1" fontId="6" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="31" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="31" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1427,15 +1505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1852,1363 +1921,811 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21" style="3" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" style="3" customWidth="1"/>
-    <col min="13" max="19" width="11.42578125" style="7"/>
-    <col min="20" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="30" style="12" customWidth="1"/>
+    <col min="2" max="2" width="28" style="12" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="12" style="12" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.3984375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="12" customWidth="1"/>
+    <col min="12" max="12" width="37.59765625" style="12" customWidth="1"/>
+    <col min="13" max="19" width="11.3984375" style="11"/>
+    <col min="20" max="16384" width="11.3984375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="10" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>24</v>
+      <c r="G1" s="33" t="s">
+        <v>19</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="34"/>
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
       <c r="K1" s="34"/>
       <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="65"/>
+      <c r="F8" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="15"/>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>4</v>
+      <c r="I9" s="42"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="39" t="s">
+        <v>16</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-    </row>
-    <row r="3" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-    </row>
-    <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-    </row>
-    <row r="7" spans="1:19" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="46" t="s">
+      <c r="L9" s="55"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="8"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="8"/>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="8"/>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="8"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="8"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="8"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="8"/>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="8"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="8"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="8"/>
-    </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="8"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="8"/>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="8"/>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="8"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="8"/>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="8"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="8"/>
-    </row>
-    <row r="59" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="8"/>
-    </row>
-    <row r="63" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="8"/>
-    </row>
-    <row r="64" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="1"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="8"/>
-    </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="8"/>
-    </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="8"/>
-    </row>
-    <row r="73" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="8"/>
-    </row>
-    <row r="79" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="14"/>
-      <c r="M79" s="8"/>
-    </row>
-    <row r="80" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="8"/>
-    </row>
-    <row r="81" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="8"/>
-    </row>
-    <row r="82" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="8"/>
-    </row>
-    <row r="83" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="8"/>
-    </row>
-    <row r="84" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K85" s="4"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="15"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="15"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="15"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="20"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="15"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="15"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="15"/>
+    </row>
+    <row r="46" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="24"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="15"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K47" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:L1"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
@@ -3216,7 +2733,6 @@
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="F1:L1"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D4:L4"/>
@@ -3224,12 +2740,6 @@
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="A7:L7"/>
     <mergeCell ref="L8:L10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H11:H1048576">
@@ -3245,7 +2755,10 @@
       <formula2>2100</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>